--- a/dataset/lg/krishna.xlsx
+++ b/dataset/lg/krishna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీ రుక్మిణీశ కేశవ
 నారద సంగీతలోల నగధర శౌరీ
@@ -477,32 +474,29 @@
 కారుణ్యముతోడ మమ్ముఁ గావుము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రు', 'U'), ('క్మి', '|'), ('ణీ', 'U'), ('శ', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('లో', 'U'), ('ల', '|'), ('న', '|'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('శౌ', 'U'), ('రీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('జ', '|'), ('నా', 'U'), ('ర్ద', '|'), ('న', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('మ', 'U'), ('మ్ము', '|'), ('గా', 'U'), ('వు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>నీవే తల్లివి తండ్రివి
 నీవే నా తోడు నీడ నీవే సఖుడౌ
@@ -510,32 +504,29 @@
 నీవే నా పతియు గతియు నిజముగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వే', 'U'), ('త', 'U'), ('ల్లి', '|'), ('వి', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('నీ', 'U'), ('వే', 'U'), ('నా', 'U'), ('తో', 'U'), ('డు', '|'), ('నీ', 'U'), ('డ', '|'), ('నీ', 'U'), ('వే', 'U'), ('స', '|'), ('ఖు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('గు', '|'), ('రు', '|'), ('డ', '|'), ('వు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('నీ', 'U'), ('వే', 'U'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('యు', '|'), ('గ', '|'), ('తి', '|'), ('యు', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>నారాయణ పరమేశ్వర
 ధారాధర నీలదేహ దానవవైరీ
@@ -543,32 +534,29 @@
 వీరా ననుగావు కరుణ వెలయగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('ధా', 'U'), ('రా', 'U'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('ల', '|'), ('దే', 'U'), ('హ', '|'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('వై', 'U'), ('రీ', 'U'), ('క్షీ', 'U'), ('రా', 'U'), ('బ్ధి', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('య', '|'), ('దు', '|'), ('కు', '|'), ('ల', '|'), ('వీ', 'U'), ('రా', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>హరి యను రెండక్షరములు
 హరియించును పాతకముల నంబుజనాభా
@@ -576,32 +564,29 @@
 హరి హరి పొగడంగ వశమె హరి శ్రీ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('య', '|'), ('ను', '|'), ('రెం', 'U'), ('డ', 'U'), ('క్ష', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('హ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('ను', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('నం', 'U'), ('బు', '|'), ('జ', '|'), ('నా', 'U'), ('భా', 'U'), ('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('రి', '|'), ('పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('హ', '|'), ('రి', 'U'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>క్రూరాత్ముఁ డజామీళుఁడు
 నారాయణ యనుచు నాత్మనందనుఁ బిలువ
@@ -609,32 +594,29 @@
 యేరీ నీసాటి వేల్పు లెందును కృష్ణా.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('క్రూ', 'U'), ('రా', 'U'), ('త్ము', '|'), ('డ', '|'), ('జా', 'U'), ('మీ', 'U'), ('ళు', '|'), ('డు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('నే', 'U'), ('రీ', 'U'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('కొం', 'U'), ('టి', '|'), ('వి', '|'), ('యే', 'U'), ('రీ', 'U'), ('నీ', 'U'), ('సా', 'U'), ('టి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('లెం', 'U'), ('దు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>చిలుక నొకరమణి ముద్దులు
 చిలుకను శ్రీరామ యనుచు శ్రీపతి పేరన్‌
@@ -642,32 +624,29 @@
 వలరఁగ మిముఁ దలఁచు జనుల కరుదా కృష్ణా.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('నొ', '|'), ('క', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లు', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ను', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('పే', 'U'), ('రన్', 'U'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వ', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('మి', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('రు', '|'), ('దా', 'U'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>అక్రూరవరద మాధవ
 చక్రాయుధ ఖడ్గపాణి శౌరి ముకుందా
@@ -675,32 +654,29 @@
 శుక్రార్చిత నన్నుఁ గరుణ జూడుము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('మా', 'U'), ('ధ', '|'), ('వ', '|'), ('చ', 'U'), ('క్రా', 'U'), ('యు', '|'), ('ధ', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('పా', 'U'), ('ణి', '|'), ('శౌ', 'U'), ('రి', '|'), ('ము', '|'), ('కుం', 'U'), ('దా', 'U'), ('శ', 'U'), ('క్రా', 'U'), ('ది', '|'), ('ది', '|'), ('వి', '|'), ('జ', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('శు', 'U'), ('క్రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('న', 'U'), ('న్ను', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('జూ', 'U'), ('డు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>నందుని ముద్దుల పట్టివి
 మంధరగిరిధరుని హరిని మాధవు విష్ణున్‌
@@ -708,32 +684,29 @@
 వందితు నినుఁ దలఁతు భక్త వత్సల కృష్ణా.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('నం', 'U'), ('దు', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వి', '|'), ('మం', 'U'), ('ధ', '|'), ('ర', '|'), ('గి', '|'), ('రి', '|'), ('ధ', '|'), ('రు', '|'), ('ని', '|'), ('హ', '|'), ('రి', '|'), ('ని', '|'), ('మా', 'U'), ('ధ', '|'), ('వు', '|'), ('వి', '|'), ('ష్ణున్', 'U'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('రూ', 'U'), ('పు', '|'), ('ని', '|'), ('ము', '|'), ('ని', '|'), ('గ', '|'), ('ణ', '|'), ('వం', 'U'), ('ది', '|'), ('తు', '|'), ('ని', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>ఓ కారుణ్యపయోనిధి
 నా కాధారంబ వగుచు నయముగఁ బ్రోవ\న్‌
@@ -741,32 +714,29 @@
 నాకాధిపవినుత లోక నాయక కృష్ణా.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధి', '|'), ('నా', 'U'), ('కా', 'U'), ('ధా', 'U'), ('రం', 'U'), ('బ', '|'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', 'U'), ('బ్రో', 'U'), ('వన్', 'U'), ('నా', 'U'), ('కే', 'U'), ('ల', '|'), ('యి', '|'), ('త', '|'), ('ర', '|'), ('చిం', 'U'), ('త', '|'), ('లు', '|'), ('నా', 'U'), ('కా', 'U'), ('ధి', '|'), ('ప', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('లో', 'U'), ('క', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>వేదంబులు గననేరని
 ఆది పరబ్రహ్మమూర్తి వనఘ మురారీ
@@ -774,32 +744,29 @@
 నీ దిక్కే నమ్మినాఁడ నిజముగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('గ', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('ఆ', 'U'), ('ది', '|'), ('ప', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('న', '|'), ('ఘ', '|'), ('ము', '|'), ('రా', 'U'), ('రీ', 'U'), ('నా', 'U'), ('ది', 'U'), ('క్కు', '|'), ('జూ', 'U'), ('చి', '|'), ('కా', 'U'), ('వు', '|'), ('ము', '|'), ('నీ', 'U'), ('ది', 'U'), ('క్కే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డ', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>పదునాలుగు భువనంబులు
 కుదురుగ నీకుక్షి నిల్పుకొను నేర్పరివై
@@ -807,32 +774,29 @@
 యుదరములో నెట్టులొదిగి యుంటివి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('దు', '|'), ('నా', 'U'), ('లు', '|'), ('గు', '|'), ('భు', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('కు', '|'), ('దు', '|'), ('రు', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', 'U'), ('క్షి', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కొ', '|'), ('ను', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వై', 'U'), ('వి', '|'), ('ది', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('దే', 'U'), ('వ', '|'), ('కి', '|'), ('యు', '|'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('నె', 'U'), ('ట్టు', '|'), ('లొ', '|'), ('ది', '|'), ('గి', '|'), ('యుం', 'U'), ('టి', '|'), ('వి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>అష్టమి రోహిణి ప్రొద్దున
 నష్టమగర్భమునఁ బుట్టి యాదేవకికిన్‌
@@ -840,32 +804,29 @@
 సృష్టి ప్రతిపాలనంబు సేయఁగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ష్ట', '|'), ('మి', '|'), ('రో', 'U'), ('హి', '|'), ('ణి', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('న', '|'), ('న', 'U'), ('ష్ట', '|'), ('మ', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('న', '|'), ('బు', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('దే', 'U'), ('వ', '|'), ('కి', '|'), ('కిన్', 'U'), ('దు', 'U'), ('ష్టు', '|'), ('ని', '|'), ('గం', 'U'), ('సు', '|'), ('వ', '|'), ('ధిం', 'U'), ('ప', '|'), ('వె', '|'), ('సృ', 'U'), ('ష్టి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('నం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>అల్ల జగన్నాథుకు వ్రే
 పల్లియ క్రీడార్థ మయ్యెఁ పరమాత్మునకున్‌
@@ -873,32 +834,29 @@
 దల్లియునై చన్నుగుడిపెఁ దనరఁగఁ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ల్ల', '|'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థు', '|'), ('కు', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లి', '|'), ('య', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('ర్థ', '|'), ('మ', 'U'), ('య్యె', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త్ము', '|'), ('న', '|'), ('కున్', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('స', '|'), ('తి', '|'), ('యా', 'U'), ('య', '|'), ('శో', 'U'), ('ద', '|'), ('యు', '|'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('నై', 'U'), ('చ', 'U'), ('న్ను', '|'), ('గు', '|'), ('డి', '|'), ('పె', '|'), ('ద', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>అందెలు గజ్జెలు మ్రోయఁగఁ
 జిందులు ద్రొక్కుచును వేడ్క చెలువారంగా
@@ -906,32 +864,29 @@
 ముందఱ నాడుదువు మిగుల మురియుచుఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('దె', '|'), ('లు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('జిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్కు', '|'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('డ్క', '|'), ('చె', '|'), ('లు', '|'), ('వా', 'U'), ('రం', 'U'), ('గా', 'U'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('యా', 'U'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('నా', 'U'), ('డు', '|'), ('దు', '|'), ('వు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('ము', '|'), ('రి', '|'), ('యు', '|'), ('చు', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>హరిచందనంబు మేనునఁ
 గరమొప్పెడు హస్తములను గంకణ రవముల్‌
@@ -939,32 +894,29 @@
 బరఁగితివౌ నీవు బాల ప్రాయము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('చం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('మే', 'U'), ('ను', '|'), ('న', '|'), ('గ', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పె', '|'), ('డు', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('గం', 'U'), ('క', '|'), ('ణ', '|'), ('ర', '|'), ('వ', '|'), ('ముల్', 'U'), ('ఉ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('గ', '|'), ('బ', '|'), ('ర', '|'), ('గి', '|'), ('తి', '|'), ('వౌ', 'U'), ('నీ', 'U'), ('వు', '|'), ('బా', 'U'), ('ల', 'U'), ('ప్రా', 'U'), ('య', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>పాణితలంబున వెన్నయు
 వేణీమూలంబునందు వెలయఁగఁ బింఛం
@@ -972,32 +924,29 @@
 నాణెముగాఁదాల్చు లోక నాథుఁడ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ణి', '|'), ('త', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('యు', '|'), ('వే', 'U'), ('ణీ', 'U'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('బిం', 'U'), ('ఛం', 'U'), ('బా', 'U'), ('ణీ', 'U'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ము', 'U'), ('క్కు', '|'), ('న', '|'), ('నా', 'U'), ('ణె', '|'), ('ము', '|'), ('గా', 'U'), ('దా', 'U'), ('ల్చు', '|'), ('లో', 'U'), ('క', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>మడుగుకుఁ జని కాళీయుని
 పడగలపై భరతశాస్త్ర పద్ధతి వెలయ\న్‌
@@ -1005,32 +954,29 @@
 నడుగులు నా మదిని దలఁతు నచ్యుత కృష్ణా.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('డు', '|'), ('గు', '|'), ('కు', '|'), ('జ', '|'), ('ని', '|'), ('కా', 'U'), ('ళీ', 'U'), ('యు', '|'), ('ని', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('పై', 'U'), ('భ', '|'), ('ర', '|'), ('త', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('గ', '|'), ('డు', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('తో', 'U'), ('నా', 'U'), ('డె', '|'), ('డు', '|'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('న', 'U'), ('చ్యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>బృందావనమున బ్రహ్మా
 నందార్భకమూర్తి వేణు నాదము నీ వా
@@ -1038,32 +984,29 @@
 విందా పూరింతువౌర వేడుకఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('బృం', 'U'), ('దా', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('న', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('నం', 'U'), ('దా', 'U'), ('ర్భ', '|'), ('క', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వే', 'U'), ('ణు', '|'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('నీ', 'U'), ('వా', 'U'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('గో', 'U'), ('విం', 'U'), ('దా', 'U'), ('పూ', 'U'), ('రిం', 'U'), ('తు', '|'), ('వౌ', 'U'), ('ర', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>వారిజ నేత్రలు యమునా
 వారిని జలకంబులాడ వచ్చిన నీ వా
@@ -1071,32 +1014,29 @@
 నేరుపురా యదియు నీకు నీతియె కృష్ణా.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('రి', '|'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('లు', '|'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('డ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('చీ', 'U'), ('ర', '|'), ('లు', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('నే', 'U'), ('రు', '|'), ('పు', '|'), ('రా', 'U'), ('య', '|'), ('ది', '|'), ('యు', '|'), ('నీ', 'U'), ('కు', '|'), ('నీ', 'U'), ('తి', '|'), ('యె', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>దేవేంద్రుఁ డలుకతోడను
 వావిరిగా ఱాళ్ళవాన వడిఁ గురియింప\న్‌
@@ -1104,32 +1044,29 @@
 గోవుల గోపకులఁ గాచు కొఱకై కృష్ణా.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('లు', '|'), ('క', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('వా', 'U'), ('వి', '|'), ('రి', '|'), ('గా', 'U'), ('ఱా', 'U'), ('ళ్ళ', '|'), ('వా', 'U'), ('న', '|'), ('వ', '|'), ('డి', '|'), ('గు', '|'), ('రి', '|'), ('యిం', 'U'), ('పన్', 'U'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('న', '|'), ('గి', '|'), ('రి', '|'), ('యె', 'U'), ('త్తి', '|'), ('తి', '|'), ('గో', 'U'), ('వు', '|'), ('ల', '|'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('ల', '|'), ('గా', 'U'), ('చు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కై', 'U'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>అండజవాహన విను బ్ర
 హ్మాండంబుల బంతులట్ల యాడెడు నీ వా
@@ -1137,32 +1074,29 @@
 కొండిక పనిగాక దొడ్డ కొండా కృష్ణా.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('డ', '|'), ('జ', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('వి', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డం', 'U'), ('బు', '|'), ('ల', '|'), ('బం', 'U'), ('తు', '|'), ('ల', 'U'), ('ట్ల', '|'), ('యా', 'U'), ('డె', '|'), ('డు', '|'), ('నీ', 'U'), ('వా', 'U'), ('కొం', 'U'), ('డ', '|'), ('ల', '|'), ('నె', 'U'), ('త్తి', '|'), ('తి', '|'), ('వం', 'U'), ('దు', '|'), ('రు', '|'), ('కొం', 'U'), ('డి', '|'), ('క', '|'), ('ప', '|'), ('ని', '|'), ('గా', 'U'), ('క', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('కొం', 'U'), ('డా', 'U'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>అంసాలంబితకుండల
 కంసాంతక నీవు ద్వారకాపురిలోన\న్‌
@@ -1170,32 +1104,29 @@
 శంసార్హుఁడ వైతి వహహ జగతిని గృష్ణా.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('సా', 'U'), ('లం', 'U'), ('బి', '|'), ('త', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', '|'), ('కం', 'U'), ('సాం', 'U'), ('త', '|'), ('క', '|'), ('నీ', 'U'), ('వు', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('లో', 'U'), ('నన్', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డి', 'U'), ('ప్ర', '|'), ('శం', 'U'), ('సా', 'U'), ('ర్హు', '|'), ('డ', '|'), ('వై', 'U'), ('తి', '|'), ('వ', '|'), ('హ', '|'), ('హ', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>పదియాఱువేల నూర్వురు
 సుదతులు నెనమండ్రు నీకు సొంపుగ భార్యల్‌
@@ -1203,32 +1134,29 @@
 వదలక రమియింతువౌర వసుధను గృష్ణా.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ది', '|'), ('యా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('ల', '|'), ('నూ', 'U'), ('ర్వు', '|'), ('రు', '|'), ('సు', '|'), ('ద', '|'), ('తు', '|'), ('లు', '|'), ('నె', '|'), ('న', '|'), ('మం', 'U'), ('డ్రు', '|'), ('నీ', 'U'), ('కు', '|'), ('సొం', 'U'), ('పు', '|'), ('గ', '|'), ('భా', 'U'), ('ర్యల్', 'U'), ('వి', '|'), ('ది', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('బ', '|'), ('హు', '|'), ('రూ', 'U'), ('పు', '|'), ('ల', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('ర', '|'), ('మి', '|'), ('యిం', 'U'), ('తు', '|'), ('వౌ', 'U'), ('ర', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>అంగన పనుపున దోవతి
 కొంగున నటుకులను ముడుచుకొని వచ్చిన యా
@@ -1236,32 +1164,29 @@
 రంగుగ సంపదలు లోక రక్షక కృష్ణా.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('గ', '|'), ('న', '|'), ('ప', '|'), ('ను', '|'), ('పు', '|'), ('న', '|'), ('దో', 'U'), ('వ', '|'), ('తి', '|'), ('కొం', 'U'), ('గు', '|'), ('న', '|'), ('న', '|'), ('టు', '|'), ('కు', '|'), ('ల', '|'), ('ను', '|'), ('ము', '|'), ('డు', '|'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('యా', 'U'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('వి', '|'), ('ని', '|'), ('ద', '|'), ('య', '|'), ('నొ', '|'), ('స', '|'), ('గి', '|'), ('తి', '|'), ('రం', 'U'), ('గు', '|'), ('గ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లు', '|'), ('లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>హా వసుదేవకుమారక
 కావుము నా మాన మనుచు కామిని వేఁడ\న్‌
@@ -1269,32 +1194,29 @@
 శ్రీవర యక్షయ మటంచు జీరలు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('వ', '|'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('క', '|'), ('కా', 'U'), ('వు', '|'), ('ము', '|'), ('నా', 'U'), ('మా', 'U'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('వే', 'U'), ('డన్', 'U'), ('ఆ', 'U'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('కి', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తి', 'U'), ('శ్రీ', 'U'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('క్ష', '|'), ('య', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('జీ', 'U'), ('ర', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>శుభ్రమగు పాంచజన్యము
 అభ్రంకషమగుచు మ్రోవ నాహవభూమి\న్‌
@@ -1302,32 +1224,29 @@
 గర్భంబుల పగులఁజేయు ఘనుడవు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('శు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('గు', '|'), ('పాం', 'U'), ('చ', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('అ', 'U'), ('భ్రం', 'U'), ('క', '|'), ('ష', '|'), ('మ', '|'), ('గు', '|'), ('చు', '|'), ('మ్రో', 'U'), ('వ', '|'), ('నా', 'U'), ('హ', '|'), ('వ', '|'), ('భూ', 'U'), ('మిన్', 'U'), ('వి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('గు', '|'), ('ద', '|'), ('ను', '|'), ('జ', '|'), ('సు', '|'), ('తా', 'U'), ('గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('ల', '|'), ('ప', '|'), ('గు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>జయమును విజయున కియ్యవె
 హయముల ములుకోల మోపి యదలించి మహా
@@ -1335,32 +1254,29 @@
 భయమున రిపుసేన విఱిగి పాఱఁగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('య', '|'), ('ము', '|'), ('ను', '|'), ('వి', '|'), ('జ', '|'), ('యు', '|'), ('న', '|'), ('కి', 'U'), ('య్య', '|'), ('వె', '|'), ('హ', '|'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('కో', 'U'), ('ల', '|'), ('మో', 'U'), ('పి', '|'), ('య', '|'), ('ద', '|'), ('లిం', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('ర', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('రొ', 'U'), ('ప్ప', '|'), ('వె', '|'), ('తే', 'U'), ('రు', '|'), ('ను', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('రి', '|'), ('పు', '|'), ('సే', 'U'), ('న', '|'), ('వి', '|'), ('ఱి', '|'), ('గి', '|'), ('పా', 'U'), ('ఱ', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>దుర్జనులగు నృపసంఘము
 నిర్జింపఁగఁ దలచి నీవు నిఖిలాధారా
@@ -1368,32 +1284,29 @@
 నర్జును రధచోదకుండ వైతివి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('గు', '|'), ('నృ', '|'), ('ప', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('ని', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నీ', 'U'), ('వు', '|'), ('ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('ధా', 'U'), ('రా', 'U'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('వ', '|'), ('ధి', '|'), ('యిం', 'U'), ('ప', '|'), ('ను', '|'), ('న', 'U'), ('ర్జు', '|'), ('ను', '|'), ('ర', '|'), ('ధ', '|'), ('చో', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('వై', 'U'), ('తి', '|'), ('వి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>శక్రసుతుఁ గాచుకొఱకై
 చక్రము చేపట్టి భీష్ముఁ జంపఁగ చను నీ
@@ -1401,32 +1314,29 @@
 నక్రాగ్రహ సర్వలోక నాయక కృష్ణా.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('శ', 'U'), ('క్ర', '|'), ('సు', '|'), ('తు', '|'), ('గా', 'U'), ('చు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కై', 'U'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('భీ', 'U'), ('ష్ము', '|'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('చ', '|'), ('ను', '|'), ('నీ', 'U'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('మే', 'U'), ('మ', '|'), ('ని', '|'), ('పొ', '|'), ('గ', '|'), ('డు', '|'), ('దు', '|'), ('న', 'U'), ('క్రా', 'U'), ('గ్ర', '|'), ('హ', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>దివిజేంద్రసుతునిఁ జంపియు
 రవిసుతు రక్షించినావు రఘురాముఁడవై
@@ -1434,32 +1344,29 @@
 రవిసుతుఁ బరిమార్చితౌర రణమునఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('వి', '|'), ('జేం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('ని', '|'), ('జం', 'U'), ('పి', '|'), ('యు', '|'), ('ర', '|'), ('వి', '|'), ('సు', '|'), ('తు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('ము', '|'), ('డ', '|'), ('వై', 'U'), ('ది', '|'), ('వి', '|'), ('జేం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('ని', '|'), ('గా', 'U'), ('చి', '|'), ('యు', '|'), ('ర', '|'), ('వి', '|'), ('సు', '|'), ('తు', '|'), ('బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>దుర్భర బాణము రాఁగా
 గర్భములోనుండి యభవ కావు మటన్న\న్‌
@@ -1467,32 +1374,29 @@
 వర్భకు నభిమన్యుసుతుని నచ్యుత కృష్ణా.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('రా', 'U'), ('గా', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లో', 'U'), ('నుం', 'U'), ('డి', '|'), ('య', '|'), ('భ', '|'), ('వ', '|'), ('కా', 'U'), ('వు', '|'), ('మ', '|'), ('ట', '|'), ('న్నన్', 'U'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('కృ', '|'), ('ప', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తి', '|'), ('వ', 'U'), ('ర్భ', '|'), ('కు', '|'), ('న', '|'), ('భి', '|'), ('మ', 'U'), ('న్యు', '|'), ('సు', '|'), ('తు', '|'), ('ని', '|'), ('న', 'U'), ('చ్యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>గిరులందు మేరువౌదువు
 సురలందున నింద్రుఁడౌదు చుక్కలలోన\న్‌
@@ -1500,32 +1404,29 @@
 నరులందున నృపతివౌదు నయముగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('గి', '|'), ('రు', '|'), ('లం', 'U'), ('దు', '|'), ('మే', 'U'), ('రు', '|'), ('వౌ', 'U'), ('దు', '|'), ('వు', '|'), ('సు', '|'), ('ర', '|'), ('లం', 'U'), ('దు', '|'), ('న', '|'), ('నిం', 'U'), ('ద్రు', '|'), ('డౌ', 'U'), ('దు', '|'), ('చు', 'U'), ('క్క', '|'), ('ల', '|'), ('లో', 'U'), ('నన్', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('త్మ', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డౌ', 'U'), ('దు', '|'), ('వు', '|'), ('న', '|'), ('రు', '|'), ('లం', 'U'), ('దు', '|'), ('న', '|'), ('నృ', '|'), ('ప', '|'), ('తి', '|'), ('వౌ', 'U'), ('దు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>చుక్కల నెన్నఁగ వచ్చును
 గ్రక్కున భూరేణువులను గణుతింప నగు\న్‌
@@ -1533,32 +1434,29 @@
 నక్కజ మగు లెక్కపెట్ట నజునకుఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('చు', 'U'), ('క్క', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('భూ', 'U'), ('రే', 'U'), ('ణు', '|'), ('వు', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('న', '|'), ('గున్', 'U'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('నీ', 'U'), ('గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('న', 'U'), ('క్క', '|'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('లె', 'U'), ('క్క', '|'), ('పె', 'U'), ('ట్ట', '|'), ('న', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>కుక్షిని నఖిలజగంబుల
 నిక్షేపముఁజేసి ప్రళయ నీరధి నడుమ\న్‌
@@ -1566,32 +1464,29 @@
 దక్షతఁ బవళించునట్టి ధన్యుఁడ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('కు', 'U'), ('క్షి', '|'), ('ని', '|'), ('న', '|'), ('ఖి', '|'), ('ల', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('జే', 'U'), ('సి', 'U'), ('ప్ర', '|'), ('ళ', '|'), ('య', '|'), ('నీ', 'U'), ('ర', '|'), ('ధి', '|'), ('న', '|'), ('డు', '|'), ('మన్', 'U'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('వ', '|'), ('ట', '|'), ('ప', 'U'), ('త్ర', '|'), ('ము', '|'), ('పై', 'U'), ('ద', 'U'), ('క్ష', '|'), ('త', '|'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>విశ్వోత్పత్తికి బ్రహ్మవు
 విశ్వము రక్షింపఁ దలఁచి విష్ణుఁడ వనగా
@@ -1599,32 +1494,29 @@
 విశ్వాత్మక నీవె యగుచు వెలయుదు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('శ్వో', 'U'), ('త్ప', 'U'), ('త్తి', '|'), ('కి', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('వు', '|'), ('వి', 'U'), ('శ్వ', '|'), ('ము', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('వ', '|'), ('న', '|'), ('గా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('ము', '|'), ('జె', '|'), ('ఱు', '|'), ('ప', '|'), ('ను', '|'), ('హ', '|'), ('రు', '|'), ('డ', '|'), ('వు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('త్మ', '|'), ('క', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('వె', '|'), ('ల', '|'), ('యు', '|'), ('దు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>అగణితవైభవ కేశవ
 నగధర వనమాలి యాది నారాయణ యో
@@ -1632,32 +1524,29 @@
 జగదీశ్వర శరణు శరణు శరణము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('న', '|'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('వ', '|'), ('న', '|'), ('మా', 'U'), ('లి', '|'), ('యా', 'U'), ('ది', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('యో', 'U'), ('భ', '|'), ('గ', '|'), ('వం', 'U'), ('తు', '|'), ('డ', 'U'), ('శ్రీ', 'U'), ('మం', 'U'), ('తు', '|'), ('డ', '|'), ('జ', '|'), ('గ', '|'), ('దీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('శ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>మగమీనమవై జలనిధిని
 బగతుని సోమకునిఁ జంపి పద్మభవునకు\న్‌
@@ -1665,32 +1554,29 @@
 సుగుణాకర మమ్ముఁ గరుణ జూడుము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గ', '|'), ('మీ', 'U'), ('న', '|'), ('మ', '|'), ('వై', 'U'), ('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('ని', '|'), ('బ', '|'), ('గ', '|'), ('తు', '|'), ('ని', '|'), ('సో', 'U'), ('మ', '|'), ('కు', '|'), ('ని', '|'), ('జం', 'U'), ('పి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('ము', '|'), ('ల', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('సు', '|'), ('గు', '|'), ('ణా', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('మ్ము', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('జూ', 'U'), ('డు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>అందఱు సురలును దనుజులు
 పొందుగ క్షీరాబ్ధిఁ దఱువఁ బొలుపున నీ వా
@@ -1698,32 +1584,29 @@
 మందరగిరి యెత్తితౌర మాధవ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('ద', '|'), ('ఱు', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('లు', '|'), ('పొం', 'U'), ('దు', '|'), ('గ', 'U'), ('క్షీ', 'U'), ('రా', 'U'), ('బ్ధి', '|'), ('ద', '|'), ('ఱు', '|'), ('వ', '|'), ('బొ', '|'), ('లు', '|'), ('పు', '|'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్మ', '|'), ('మ', '|'), ('వై', 'U'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('గి', '|'), ('రి', '|'), ('యె', 'U'), ('త్తి', '|'), ('తౌ', 'U'), ('ర', '|'), ('మా', 'U'), ('ధ', '|'), ('వ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>ఆదివరాహమ వయి నీ
 వా దనుజు హిరణ్యనేత్రు హతుఁజేసి తగ\న్‌
@@ -1731,32 +1614,29 @@
 మేదిని వడి గొడుగునెత్తి మెఱసితి గృష్ణా.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ది', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మ', '|'), ('వ', '|'), ('యి', '|'), ('నీ', 'U'), ('వా', 'U'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('నే', 'U'), ('త్రు', '|'), ('హ', '|'), ('తు', '|'), ('జే', 'U'), ('సి', '|'), ('త', '|'), ('గన్', 'U'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('వ', '|'), ('డి', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('నె', 'U'), ('త్తి', '|'), ('మె', '|'), ('ఱ', '|'), ('సి', '|'), ('తి', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>కెరలి యఱచేతఁ గంబము
 నరుదుగ వేయుటను వెడలి యసురేశ్వరుని\న్‌
@@ -1764,32 +1644,29 @@
 నరహరి రూపావతార నగధర కృష్ణా.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('కె', '|'), ('ర', '|'), ('లి', '|'), ('య', '|'), ('ఱ', '|'), ('చే', 'U'), ('త', '|'), ('గం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('వే', 'U'), ('యు', '|'), ('ట', '|'), ('ను', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('య', '|'), ('సు', '|'), ('రే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('నిన్', 'U'), ('ఉ', '|'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('జీ', 'U'), ('రి', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('తి', '|'), ('న', '|'), ('ర', '|'), ('హ', '|'), ('రి', '|'), ('రూ', 'U'), ('పా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>వడుగవునై మూఁడడుగుల
 నడిగితివౌ భళిర భళిర యఖిలజగంబుల్‌
@@ -1797,32 +1674,29 @@
 గడు చిత్రము నీ చరిత్ర ఘనుఁడవు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('డు', '|'), ('గ', '|'), ('వు', '|'), ('నై', 'U'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', '|'), ('ల', '|'), ('న', '|'), ('డి', '|'), ('గి', '|'), ('తి', '|'), ('వౌ', 'U'), ('భ', '|'), ('ళి', '|'), ('ర', '|'), ('భ', '|'), ('ళి', '|'), ('ర', '|'), ('య', '|'), ('ఖి', '|'), ('ల', '|'), ('జ', '|'), ('గం', 'U'), ('బుల్', 'U'), ('తొ', '|'), ('డి', '|'), ('గి', '|'), ('తి', '|'), ('వి', '|'), ('నీ', 'U'), ('దు', '|'), ('మే', 'U'), ('ను', '|'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('చి', 'U'), ('త్ర', '|'), ('ము', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>ఇరువదొకమాఱు నృపతుల
 శిరములు ఖండించితౌర చేగొడ్డంట\న్‌
@@ -1830,32 +1704,29 @@
 బరఁగవె జమదగ్ని రామభద్రుడ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('రు', '|'), ('వ', '|'), ('దొ', '|'), ('క', '|'), ('మా', 'U'), ('ఱు', '|'), ('నృ', '|'), ('ప', '|'), ('తు', '|'), ('ల', '|'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('చే', 'U'), ('గొ', 'U'), ('డ్డం', 'U'), ('టన్', 'U'), ('ధ', '|'), ('ర', '|'), ('గ', 'U'), ('శ్య', '|'), ('పు', '|'), ('న', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చి', '|'), ('యు', '|'), ('బ', '|'), ('ర', '|'), ('గ', '|'), ('వె', '|'), ('జ', '|'), ('మ', '|'), ('ద', 'U'), ('గ్ని', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>దశకంఠునిఁ బరిమార్చియు
 గుశలముతో సీతఁదెచ్చి కొనియు నయోధ్య\న్‌
@@ -1863,32 +1734,29 @@
 దశరథరామావతార ధన్యుఁడ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('ని', '|'), ('బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('యు', '|'), ('గు', '|'), ('శ', '|'), ('ల', '|'), ('ము', '|'), ('తో', 'U'), ('సీ', 'U'), ('త', '|'), ('దె', 'U'), ('చ్చి', '|'), ('కొ', '|'), ('ని', '|'), ('యు', '|'), ('న', '|'), ('యో', 'U'), ('ధ్యన్', 'U'), ('వి', '|'), ('శ', '|'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('నే', 'U'), ('లి', '|'), ('న', '|'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>ఘనులగు ధేనుకముష్టిక
 దనుజులఁ జెండాడితౌర తగ భుజశక్తిన్‌
@@ -1896,32 +1764,29 @@
 యనఁగా బలరామమూర్తి వైతివి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('ల', '|'), ('గు', '|'), ('ధే', 'U'), ('ను', '|'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('క', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('జెం', 'U'), ('డా', 'U'), ('డి', '|'), ('తౌ', 'U'), ('ర', '|'), ('త', '|'), ('గ', '|'), ('భు', '|'), ('జ', '|'), ('శ', '|'), ('క్తిన్', 'U'), ('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('త్మ', '|'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('ప', '|'), ('తి', '|'), ('య', '|'), ('న', '|'), ('గా', 'U'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('తి', '|'), ('వి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>త్రిపురాసుర భార్యల నతి
 నిపుణతతో వ్రతముచేత నిలిపితి కీర్తుల్‌
@@ -1929,32 +1794,29 @@
 కృపగల బౌద్ధావతార ఘనుఁడవు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('త్రి', '|'), ('పు', '|'), ('రా', 'U'), ('సు', '|'), ('ర', '|'), ('భా', 'U'), ('ర్య', '|'), ('ల', '|'), ('న', '|'), ('తి', '|'), ('ని', '|'), ('పు', '|'), ('ణ', '|'), ('త', '|'), ('తో', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('ని', '|'), ('లి', '|'), ('పి', '|'), ('తి', '|'), ('కీ', 'U'), ('ర్తుల్', 'U'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('పు', '|'), ('రా', 'U'), ('జ', '|'), ('వు', '|'), ('బ', '|'), ('ళి', '|'), ('రే', 'U'), ('కృ', '|'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('బౌ', 'U'), ('ద్ధా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>వలపుగల తేజి నెక్కియు
 నిలపై ధర్మంబు నిలుప హీనులఁ ద్రుంప\న్‌
@@ -1962,32 +1824,29 @@
 కలికివిగా నున్న లోకకర్తవు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('పు', '|'), ('గ', '|'), ('ల', '|'), ('తే', 'U'), ('జి', '|'), ('నె', 'U'), ('క్కి', '|'), ('యు', '|'), ('ని', '|'), ('ల', '|'), ('పై', 'U'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('హీ', 'U'), ('ను', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('పన్', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('తు', '|'), ('ద', '|'), ('ను', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('వి', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('లో', 'U'), ('క', '|'), ('క', 'U'), ('ర్త', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>వనజాక్ష భక్తవత్సల
 ఘనులగు త్రైమూర్తులందుఁ గరుణానిధివై
@@ -1995,32 +1854,29 @@
 సనకాది మునీంద్రు లెన్నఁ జాలరు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్ష', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('ఘ', '|'), ('ను', '|'), ('ల', '|'), ('గు', 'U'), ('త్రై', 'U'), ('మూ', 'U'), ('ర్తు', '|'), ('లం', 'U'), ('దు', '|'), ('గ', '|'), ('రు', '|'), ('ణా', 'U'), ('ని', '|'), ('ధి', '|'), ('వై', 'U'), ('క', '|'), ('న', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('లె', 'U'), ('న్న', '|'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>అపరాధ సహస్రంబుల
 నపరిమితములైన యఘము లనిశము నేను\న్‌
@@ -2028,32 +1884,29 @@
 జపలుని ననుగావు శేషశాయివి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ప', '|'), ('రా', 'U'), ('ధ', '|'), ('స', '|'), ('హ', 'U'), ('స్రం', 'U'), ('బు', '|'), ('ల', '|'), ('న', '|'), ('ప', '|'), ('రి', '|'), ('మి', '|'), ('త', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('య', '|'), ('ఘ', '|'), ('ము', '|'), ('ల', '|'), ('ని', '|'), ('శ', '|'), ('ము', '|'), ('నే', 'U'), ('నున్', 'U'), ('గ', '|'), ('ప', '|'), ('టా', 'U'), ('త్ము', '|'), ('డ', '|'), ('నై', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('జ', '|'), ('ప', '|'), ('లు', '|'), ('ని', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('శే', 'U'), ('ష', '|'), ('శా', 'U'), ('యి', '|'), ('వి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>నరపశువ మూఢచిత్తుఁడ
 దురితారంభుఁడను మిగుల దోషగుఁడను నీ
@@ -2061,32 +1914,29 @@
 హరి నీవే ప్రాపు దాపు వౌదువు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('ప', '|'), ('శు', '|'), ('వ', '|'), ('మూ', 'U'), ('ఢ', '|'), ('చి', 'U'), ('త్తు', '|'), ('డ', '|'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('రం', 'U'), ('భు', '|'), ('డ', '|'), ('ను', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('దో', 'U'), ('ష', '|'), ('గు', '|'), ('డ', '|'), ('ను', '|'), ('నీ', 'U'), ('గు', '|'), ('ఱు', '|'), ('తె', '|'), ('ఱు', '|'), ('గ', '|'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('వే', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('దా', 'U'), ('పు', '|'), ('వౌ', 'U'), ('దు', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>పరనారీ ముఖపద్మము
 గుఱుతుగఁ గుచకుంభములను గొప్పును నడుము\న్‌
@@ -2094,32 +1944,29 @@
 నిరతిని నిను భక్తిఁ గొల్వ నేరరు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('ము', '|'), ('ఖ', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', '|'), ('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గ', '|'), ('గు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('గొ', 'U'), ('ప్పు', '|'), ('ను', '|'), ('న', '|'), ('డు', '|'), ('మున్', 'U'), ('అ', '|'), ('ర', '|'), ('యం', 'U'), ('గ', '|'), ('నె', '|'), ('మో', 'U'), ('హిం', 'U'), ('తు', '|'), ('రు', '|'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>పంచేంద్రియమార్గంబులఁ
 గొంచెపు బుద్ధిని జరించి కొన్ని దినంబుల్‌
@@ -2127,32 +1974,29 @@
 నెంచగ మిమ్మెఱిఁగినాఁడ నిప్పుడె కృష్ణా.</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('ల', '|'), ('గొం', 'U'), ('చె', '|'), ('పు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ని', '|'), ('జ', '|'), ('రిం', 'U'), ('చి', '|'), ('కొ', 'U'), ('న్ని', '|'), ('ది', '|'), ('నం', 'U'), ('బుల్', 'U'), ('ఇం', 'U'), ('చు', '|'), ('క', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నెం', 'U'), ('చ', '|'), ('గ', '|'), ('మి', 'U'), ('మ్మె', '|'), ('ఱి', '|'), ('గి', '|'), ('నా', 'U'), ('డ', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డె', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>దుష్టుండ దురాచారుఁడ
 దుష్టచరిఁత్రుఁడను చాల దుర్బుద్ధిని నేఁ
@@ -2160,32 +2004,29 @@
 కష్టుఁడ నగు నన్ను కావు కరుణను గృష్ణా.</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ష్టుం', 'U'), ('డ', '|'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('రు', '|'), ('డ', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చ', '|'), ('రి', 'U'), ('త్రు', '|'), ('డ', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధి', '|'), ('ని', '|'), ('నే', 'U'), ('ని', 'U'), ('ష్ట', '|'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర', '|'), ('ను', '|'), ('క', 'U'), ('ష్టు', '|'), ('డ', '|'), ('న', '|'), ('గు', '|'), ('న', 'U'), ('న్ను', '|'), ('కా', 'U'), ('వు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>కుంభీంద్రవరద కేశవ
 జంభాసురవైరి దివిజ సన్నుత చరితా
@@ -2193,32 +2034,29 @@
 గంభీరా నన్నుఁ గావు కరుణను గృష్ణా.</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('కుం', 'U'), ('భీం', 'U'), ('ద్ర', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('జం', 'U'), ('భా', 'U'), ('సు', '|'), ('ర', '|'), ('వై', 'U'), ('రి', '|'), ('ది', '|'), ('వి', '|'), ('జ', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('చ', '|'), ('రి', '|'), ('తా', 'U'), ('అం', 'U'), ('భో', 'U'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('గం', 'U'), ('భీ', 'U'), ('రా', 'U'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>దిక్కెవ్వరు ప్రహ్లాదుకు
 దిక్కెవ్వరు పాండుసుతుల దీనుల కెపుడు\న్‌
@@ -2226,32 +2064,29 @@
 దిక్కెవ్వరు నీవె నాకు దిక్కువు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('ది', 'U'), ('క్కె', 'U'), ('వ్వ', '|'), ('రు', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('కు', '|'), ('ది', 'U'), ('క్కె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('పాం', 'U'), ('డు', '|'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('కె', '|'), ('పు', '|'), ('డున్', 'U'), ('ది', 'U'), ('క్కె', 'U'), ('వ్వ', '|'), ('ర', 'U'), ('య్య', '|'), ('హ', 'U'), ('ల్య', '|'), ('కు', '|'), ('ది', 'U'), ('క్కె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('నీ', 'U'), ('వె', '|'), ('నా', 'U'), ('కు', '|'), ('ది', 'U'), ('క్కు', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>హరి నీవె దిక్కు నాకును
 సిరితో నేతెంచి మకరి శిక్షించి దయ\న్‌
@@ -2259,32 +2094,29 @@
 కరిఁ గాచిన రీతి నన్నుఁ గావుము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('నా', 'U'), ('కు', '|'), ('ను', '|'), ('సి', '|'), ('రి', '|'), ('తో', 'U'), ('నే', 'U'), ('తెం', 'U'), ('చి', '|'), ('మ', '|'), ('క', '|'), ('రి', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('ద', '|'), ('యన్', 'U'), ('బ', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('క', '|'), ('రి', '|'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>పురుషోత్తమ లక్ష్మీపతి
 సరసిజగర్భాది మౌనిసన్నుతచరితా
@@ -2292,32 +2124,29 @@
 వరదుఁడ వగు నాకు భక్త వత్సల కృష్ణా.</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('షో', 'U'), ('త్త', '|'), ('మ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప', '|'), ('తి', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జ', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('ది', '|'), ('మౌ', 'U'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('చ', '|'), ('రి', '|'), ('తా', 'U'), ('ము', '|'), ('ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('సు', '|'), ('ర', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('దు', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('నా', 'U'), ('కు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>క్రతువులు తీర్థాటనములు
 వ్రతములు దానములు సేయ వలెనా లక్ష్మీ
@@ -2325,32 +2154,29 @@
 నతులితపుణ్యములు గలుగు టరుదే కృష్ణా.</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('క్ర', '|'), ('తు', '|'), ('వు', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్థా', 'U'), ('ట', '|'), ('న', '|'), ('ము', '|'), ('లు', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప', '|'), ('తి', '|'), ('మి', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('తు', '|'), ('లి', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('లు', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ట', '|'), ('రు', '|'), ('దే', 'U'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>స్తంభమున వెడలి దానవ
 డింభకు రక్షించినట్టి రీతిని వెలయ\న్‌
@@ -2358,32 +2184,29 @@
 గంభీరుఁడ నన్నుఁ గావు కరుణను గృష్ణా.</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('స్తం', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('డిం', 'U'), ('భ', '|'), ('కు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('అం', 'U'), ('భో', 'U'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('గం', 'U'), ('భీ', 'U'), ('రు', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>శతకోటి భానుతేజా
 యతులితసద్గుణగణాఢ్య యంబుజనాభా
@@ -2391,32 +2214,29 @@
 సతిహిత ననుఁ గావు భక్త వత్సల కృష్ణా.</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('భా', 'U'), ('ను', '|'), ('తే', 'U'), ('జా', 'U'), ('య', '|'), ('తు', '|'), ('లి', '|'), ('త', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('గ', '|'), ('ణా', 'U'), ('ఢ్య', '|'), ('యం', 'U'), ('బు', '|'), ('జ', '|'), ('నా', 'U'), ('భా', 'U'), ('ర', '|'), ('తి', '|'), ('నా', 'U'), ('థ', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('స', '|'), ('తి', '|'), ('హి', '|'), ('త', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>మందుఁడ నే దురితాత్ముఁడ
 నిందల కొడిఁగట్టినట్టి నీచుని నన్ను\న్‌
@@ -2424,32 +2244,29 @@
 నందుని వరపుత్ర నిన్ను నమ్మితి గృష్ణా.</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('దు', '|'), ('డ', '|'), ('నే', 'U'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('త్ము', '|'), ('డ', '|'), ('నిం', 'U'), ('ద', '|'), ('ల', '|'), ('కొ', '|'), ('డి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('చు', '|'), ('ని', '|'), ('న', '|'), ('న్నున్', 'U'), ('సం', 'U'), ('దే', 'U'), ('హిం', 'U'), ('ప', '|'), ('క', '|'), ('కా', 'U'), ('వు', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('వ', '|'), ('ర', '|'), ('పు', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>గజరాజవరద కేశవ
 త్రిజగత్కల్యాణమూర్తి దేవ మురారీ
@@ -2457,32 +2274,29 @@
 విజయాప్తుఁడ నన్నుఁగావు వేగమె కృష్ణా.</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('కే', 'U'), ('శ', '|'), ('వ', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('దే', 'U'), ('వ', '|'), ('ము', '|'), ('రా', 'U'), ('రీ', 'U'), ('భు', '|'), ('జ', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('మా', 'U'), ('ధ', '|'), ('వ', '|'), ('వి', '|'), ('జ', '|'), ('యా', 'U'), ('ప్తు', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('వే', 'U'), ('గ', '|'), ('మె', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>గోపాల కృష్ణ మురహర
 పాపాలను బాఱఁదోలు ప్రభుఁడవు నీవే
@@ -2490,32 +2304,29 @@
 నాపాలిటఁగలిగి ప్రోవు నమ్మితిఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('ము', '|'), ('ర', '|'), ('హ', '|'), ('ర', '|'), ('పా', 'U'), ('పా', 'U'), ('ల', '|'), ('ను', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('లు', 'U'), ('ప్ర', '|'), ('భు', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వే', 'U'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('నా', 'U'), ('పా', 'U'), ('లి', '|'), ('ట', '|'), ('గ', '|'), ('లి', '|'), ('గి', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>దుర్వార చక్రధరకర
 శర్వాణీ భర్తృవినుత జగదాధారా
@@ -2523,32 +2334,29 @@
 సర్వాత్మక నన్నుఁగావు సరగున కృష్ణా.</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('చ', 'U'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('క', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వా', 'U'), ('ణీ', 'U'), ('భ', 'U'), ('ర్తృ', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('జ', '|'), ('గ', '|'), ('దా', 'U'), ('ధా', 'U'), ('రా', 'U'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థ', '|'), ('మా', 'U'), ('ధ', '|'), ('వ', '|'), ('స', 'U'), ('ర్వా', 'U'), ('త్మ', '|'), ('క', '|'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('స', '|'), ('ర', '|'), ('గు', '|'), ('న', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>సుత్రామనుత జనార్దన
 సత్రాజిత్తనయనాథ సౌందర్యకళా
@@ -2556,32 +2364,29 @@
 పుత్రా ననుఁగావు నీకు బుణ్యము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('సు', 'U'), ('త్రా', 'U'), ('మ', '|'), ('ను', '|'), ('త', '|'), ('జ', '|'), ('నా', 'U'), ('ర్ద', '|'), ('న', '|'), ('స', 'U'), ('త్రా', 'U'), ('జి', 'U'), ('త్త', '|'), ('న', '|'), ('య', '|'), ('నా', 'U'), ('థ', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('క', '|'), ('ళా', 'U'), ('చి', 'U'), ('త్రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('కి', '|'), ('పు', 'U'), ('త్రా', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('కు', '|'), ('బు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>బలమెవ్వఁడు కరిఁ బ్రోవను
 బలమెవ్వఁడు పాండుసుతుల భార్యను గావ\న్‌
@@ -2589,32 +2394,29 @@
 బలమెవ్వఁడు నాకు నీవ బలమౌఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('క', '|'), ('రి', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('ను', '|'), ('బ', '|'), ('ల', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('పాం', 'U'), ('డు', '|'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('భా', 'U'), ('ర్య', '|'), ('ను', '|'), ('గా', 'U'), ('వన్', 'U'), ('బ', '|'), ('ల', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ర', '|'), ('వి', '|'), ('సు', '|'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('బ', '|'), ('ల', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('నా', 'U'), ('కు', '|'), ('నీ', 'U'), ('వ', '|'), ('బ', '|'), ('ల', '|'), ('మౌ', 'U'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>పరుసము సోకిన యినుమును
 వరుసగ బంగారమైన వడువున జిహ్వ\న్‌
@@ -2622,32 +2424,29 @@
 సురవందిత నేను నటుల సులభుఁడ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('స', '|'), ('ము', '|'), ('సో', 'U'), ('కి', '|'), ('న', '|'), ('యి', '|'), ('ను', '|'), ('ము', '|'), ('ను', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('గ', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వ', '|'), ('డు', '|'), ('వు', '|'), ('న', '|'), ('జి', '|'), ('హ్వన్', 'U'), ('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('సో', 'U'), ('కి', '|'), ('న', '|'), ('సు', '|'), ('ర', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('నే', 'U'), ('ను', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('సు', '|'), ('ల', '|'), ('భు', '|'), ('డ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>ఒకసారి నీదునామము
 ప్రకటముగాఁ దలఁచువారి పాపము లెల్ల\న్‌
@@ -2655,32 +2454,29 @@
 సకలార్థ యజామిళుండు సాక్షియె కృష్ణా.</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లె', '|'), ('ల్లన్', 'U'), ('వి', '|'), ('క', '|'), ('ల', '|'), ('ము', '|'), ('లై', 'U'), ('తొ', '|'), ('ల', '|'), ('గు', '|'), ('ట', '|'), ('కు', '|'), ('ను', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('ర్థ', '|'), ('య', '|'), ('జా', 'U'), ('మి', '|'), ('ళుం', 'U'), ('డు', '|'), ('సా', 'U'), ('క్షి', '|'), ('యె', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>హరి సర్వంబునఁ గలఁ డని
 గరిమను దైత్యుండు పలుకఁ గంబములోన\న్‌
@@ -2688,32 +2484,29 @@
 శరణనఁ బ్రహ్లాదుడిండు సాక్షియె కృష్ణా.</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('డ', '|'), ('ని', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('ను', '|'), ('దై', 'U'), ('త్యుం', 'U'), ('డు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('గం', 'U'), ('బ', '|'), ('ము', '|'), ('లో', 'U'), ('నన్', 'U'), ('ఇ', '|'), ('ర', '|'), ('వొం', 'U'), ('ది', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('చీ', 'U'), ('ల్చ', '|'), ('వె', '|'), ('శ', '|'), ('ర', '|'), ('ణ', '|'), ('న', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డిం', 'U'), ('డు', '|'), ('సా', 'U'), ('క్షి', '|'), ('యె', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>భద్రార్చిత పదపద్మ సు
 భద్రాగ్రజ సర్వలోక పాలన హరి శ్రీ
@@ -2721,32 +2514,29 @@
 భద్రానుజ నన్ను బ్రోవు భవహర కృష్ణా.</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('ద్రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సు', '|'), ('భ', '|'), ('ద్రా', 'U'), ('గ్ర', '|'), ('జ', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('పా', 'U'), ('ల', '|'), ('న', '|'), ('హ', '|'), ('రి', 'U'), ('శ్రీ', 'U'), ('భ', '|'), ('ద్రా', 'U'), ('ధి', '|'), ('ప', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('బ', '|'), ('ల', '|'), ('భ', '|'), ('ద్రా', 'U'), ('ను', '|'), ('జ', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('భ', '|'), ('వ', '|'), ('హ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>ఎటువలెఁ గరిమొఱ వింటివి
 ఎటువలెఁ బ్రహ్లాదు కభయమిచ్చితి కరుణ\న్‌
@@ -2754,32 +2544,29 @@
 కటకట నినునమ్మినాఁడ గావుము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('గ', '|'), ('రి', '|'), ('మొ', '|'), ('ఱ', '|'), ('విం', 'U'), ('టి', '|'), ('వి', '|'), ('ఎ', '|'), ('టు', '|'), ('వ', '|'), ('లె', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('క', '|'), ('భ', '|'), ('య', '|'), ('మి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('క', '|'), ('రు', '|'), ('ణన్', 'U'), ('అ', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('ము', '|'), ('క', '|'), ('ట', '|'), ('క', '|'), ('ట', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డ', '|'), ('గా', 'U'), ('వు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>తటతట లేటికిఁ జేసెదు
 కటకట పరమాత్మ నీవు ఘంటాకర్ణు\న్‌
@@ -2787,32 +2574,29 @@
 వటువలె రక్షింపుమయ్య యచ్యుత కృష్ణా.</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ట', '|'), ('త', '|'), ('ట', '|'), ('లే', 'U'), ('టి', '|'), ('కి', '|'), ('జే', 'U'), ('సె', '|'), ('దు', '|'), ('క', '|'), ('ట', '|'), ('క', '|'), ('ట', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త్మ', '|'), ('నీ', 'U'), ('వు', '|'), ('ఘం', 'U'), ('టా', 'U'), ('క', '|'), ('ర్ణున్', 'U'), ('ఎ', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వ', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('య', 'U'), ('చ్యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>తురగాధ్వరంబుఁ జేసిన
 పురుషులకును వేఱెపదవి పుట్టుట యేమో
@@ -2820,32 +2604,29 @@
 నరుదా కైవల్యపదవి యచ్యుత కృష్ణా.</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('తు', '|'), ('ర', '|'), ('గా', 'U'), ('ధ్వ', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('వే', 'U'), ('ఱె', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('పు', 'U'), ('ట్టు', '|'), ('ట', '|'), ('యే', 'U'), ('మో', 'U'), ('హ', '|'), ('రి', '|'), ('మి', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('రు', '|'), ('దా', 'U'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('య', 'U'), ('చ్యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>ఓ భవబంధవిమోచన
 ఓ భరతాగ్రజ మురారి యోరఘు రామా
@@ -2853,32 +2634,29 @@
 ఓ భయహర నన్నుగావుమో హరి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('భ', '|'), ('వ', '|'), ('బం', 'U'), ('ధ', '|'), ('వి', '|'), ('మో', 'U'), ('చ', '|'), ('న', '|'), ('ఓ', 'U'), ('భ', '|'), ('ర', '|'), ('తా', 'U'), ('గ్ర', '|'), ('జ', '|'), ('ము', '|'), ('రా', 'U'), ('రి', '|'), ('యో', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('ఓ', 'U'), ('భ', 'U'), ('క్త', '|'), ('కా', 'U'), ('మ', '|'), ('ధే', 'U'), ('ను', '|'), ('వ', '|'), ('ఓ', 'U'), ('భ', '|'), ('య', '|'), ('హ', '|'), ('ర', '|'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('మో', 'U'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>ఏతండ్రి కనకకశ్యపు
 ఘాతకుఁడై యతనిసుతుని గరుణను గాచె\న్‌
@@ -2886,32 +2664,29 @@
 నా తండ్రీ నిన్ను నేను నమ్మితి గృష్ణా.</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('క', 'U'), ('శ్య', '|'), ('పు', '|'), ('ఘా', 'U'), ('త', '|'), ('కు', '|'), ('డై', 'U'), ('య', '|'), ('త', '|'), ('ని', '|'), ('సు', '|'), ('తు', '|'), ('ని', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గా', 'U'), ('చెన్', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('సు', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('నా', 'U'), ('తం', 'U'), ('డ్రీ', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>ఓ పుండరీకలోచన
 యో పురుషోత్తమ ముకుంద యో గోవిందా
@@ -2919,32 +2694,29 @@
 యో పుణ్యుఁడ నన్నుఁబ్రోవుమో హరి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('క', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('యో', 'U'), ('పు', '|'), ('రు', '|'), ('షో', 'U'), ('త్త', '|'), ('మ', '|'), ('ము', '|'), ('కుం', 'U'), ('ద', '|'), ('యో', 'U'), ('గో', 'U'), ('విం', 'U'), ('దా', 'U'), ('యో', 'U'), ('పు', '|'), ('ర', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('మి', 'U'), ('త్రు', '|'), ('డ', '|'), ('యో', 'U'), ('పు', 'U'), ('ణ్యు', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మో', 'U'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>ఏవిభుఁడు ఘోరరణమున
 రావణుఁ వధియించి లంకరాజుగ నిలిపె\న్‌
@@ -2952,32 +2724,29 @@
 నావిభు నేఁ దలఁతు మదిని నచ్యుత కృష్ణా.</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('ఘో', 'U'), ('ర', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('వ', '|'), ('ధి', '|'), ('యిం', 'U'), ('చి', '|'), ('లం', 'U'), ('క', '|'), ('రా', 'U'), ('జు', '|'), ('గ', '|'), ('ని', '|'), ('లి', '|'), ('పెన్', 'U'), ('దీ', 'U'), ('విం', 'U'), ('చి', '|'), ('యా', 'U'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('నా', 'U'), ('వి', '|'), ('భు', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('న', 'U'), ('చ్యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>గ్రహభయదోషము లొందవు
 బహుపీడలు చేర వెఱచుఁ బాయును నఘముల్‌
@@ -2985,32 +2754,29 @@
 తహతహలెక్కడివి నిన్నుఁదలఁచినఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('గ్ర', '|'), ('హ', '|'), ('భ', '|'), ('య', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లొం', 'U'), ('ద', '|'), ('వు', '|'), ('బ', '|'), ('హు', '|'), ('పీ', 'U'), ('డ', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('బా', 'U'), ('యు', '|'), ('ను', '|'), ('న', '|'), ('ఘ', '|'), ('ముల్', 'U'), ('ఇ', '|'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('హ', '|'), ('త', '|'), ('హ', '|'), ('లె', 'U'), ('క్క', '|'), ('డి', '|'), ('వి', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>గంగ మొదలైన నదులను
 మంగళముగఁ జేయునట్టి మజ్జనములకు\న్‌
@@ -3018,32 +2784,29 @@
 రంగుగ మిముఁదలఁచు సాటి రావుర కృష్ణా.</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('గం', 'U'), ('గ', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('న', '|'), ('దు', '|'), ('ల', '|'), ('ను', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('న', 'U'), ('ట్టి', '|'), ('మ', 'U'), ('జ్జ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('రం', 'U'), ('గు', '|'), ('గ', '|'), ('మి', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('సా', 'U'), ('టి', '|'), ('రా', 'U'), ('వు', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>ఆ దండకావనంబున
 కోదండముఁదాల్చినట్టి కోమలమూర్తీ
@@ -3051,32 +2814,29 @@
 వేదండము కాచినట్టి వేల్పువు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('దం', 'U'), ('డ', '|'), ('కా', 'U'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తీ', 'U'), ('నా', 'U'), ('దం', 'U'), ('డ', '|'), ('గా', 'U'), ('వ', '|'), ('ర', 'U'), ('మ్మీ', 'U'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('కా', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>చూపుము నీరూపంబును
 బాపపు దుష్కృతము లెల్లఁ బంకజనాభా
@@ -3084,32 +2844,29 @@
 శ్రీపతి నిను నమ్మినాఁడ సిద్ధము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('చూ', 'U'), ('పు', '|'), ('ము', '|'), ('నీ', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('ప', '|'), ('పు', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('క', '|'), ('జ', '|'), ('నా', 'U'), ('భా', 'U'), ('పా', 'U'), ('పు', '|'), ('ము', '|'), ('నా', 'U'), ('కు', '|'), ('ను', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>నీ నామము భవహరణము
 నీ నామము సర్వసౌఖ్య నివహకరంబు\న్‌
@@ -3117,32 +2874,29 @@
 నీ నామము నేఁదలంతు నిత్యము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('భ', '|'), ('వ', '|'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ని', '|'), ('వ', '|'), ('హ', '|'), ('క', '|'), ('రం', 'U'), ('బున్', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('మృ', '|'), ('త', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('నే', 'U'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>పరులను నడిగిన జనులకు
 కుఱుచ సుమీ యిది యటంచు గుఱుతుగ నీవు\న్‌
@@ -3150,32 +2904,29 @@
 ధరఁ బాదత్రయము బలిని దద్దయుఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('న', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('కు', '|'), ('ఱు', '|'), ('చ', '|'), ('సు', '|'), ('మీ', 'U'), ('యి', '|'), ('ది', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గ', '|'), ('నీ', 'U'), ('వున్', 'U'), ('గు', '|'), ('రు', '|'), ('చ', '|'), ('డ', '|'), ('వై', 'U'), ('వే', 'U'), ('డి', '|'), ('తి', '|'), ('ము', '|'), ('ను', '|'), ('ధ', '|'), ('ర', '|'), ('బా', 'U'), ('ద', 'U'), ('త్ర', '|'), ('య', '|'), ('ము', '|'), ('బ', '|'), ('లి', '|'), ('ని', '|'), ('ద', 'U'), ('ద్ద', '|'), ('యు', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>పాలను వెన్నయును మ్రుచ్చిల
 ఱోలను మీ తల్లి కట్ట రోషముతోడ\న్‌
@@ -3183,32 +2934,29 @@
 బాలుఁడవా బ్రహ్మకన్న ప్రభుఁడవు గృష్ణా.</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('ను', '|'), ('వె', 'U'), ('న్న', '|'), ('యు', '|'), ('ను', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('ల', '|'), ('ఱో', 'U'), ('ల', '|'), ('ను', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('క', 'U'), ('ట్ట', '|'), ('రో', 'U'), ('ష', '|'), ('ము', '|'), ('తో', 'U'), ('డన్', 'U'), ('లీ', 'U'), ('లా', 'U'), ('వి', '|'), ('నో', 'U'), ('ది', '|'), ('వై', 'U'), ('తి', '|'), ('వి', '|'), ('బా', 'U'), ('లు', '|'), ('డ', '|'), ('వా', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('న్న', 'U'), ('ప్ర', '|'), ('భు', '|'), ('డ', '|'), ('వు', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>రఘునాయక నీనామము
 లఘుమతితోఁ దలఁపఁగలనె లక్ష్మీరమణా
@@ -3216,32 +2964,29 @@
 రఘురాముఁడ వైన లోక రక్షక కృష్ణా.</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('ల', '|'), ('ఘు', '|'), ('మ', '|'), ('తి', '|'), ('తో', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('నె', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణా', 'U'), ('అ', '|'), ('ల', '|'), ('ఘ', '|'), ('ము', '|'), ('ల', '|'), ('బా', 'U'), ('పు', '|'), ('ము', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('ము', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>అప్పా యిత్తువు దయతో
 నప్పాలను నతిరసంబు లనుభవశాలీ
@@ -3249,32 +2994,29 @@
 యప్పా నను బ్రోవు వేంకటప్పా కృష్ణా.</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ప్పా', 'U'), ('యి', 'U'), ('త్తు', '|'), ('వు', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('న', 'U'), ('ప్పా', 'U'), ('ల', '|'), ('ను', '|'), ('న', '|'), ('తి', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('శా', 'U'), ('లీ', 'U'), ('య', 'U'), ('ప్పా', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('య', 'U'), ('ప్పా', 'U'), ('న', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('ట', 'U'), ('ప్పా', 'U'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>కొంచెపువాఁడని మదిలో
 నెంచకుమీ వాసుదేవ యిభవరద హరీ
@@ -3282,32 +3024,29 @@
 గొంచము నధికంబు గలదె కొంతయుఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('చె', '|'), ('పు', '|'), ('వా', 'U'), ('డ', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నెం', 'U'), ('చ', '|'), ('కు', '|'), ('మీ', 'U'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('యి', '|'), ('భ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('హ', '|'), ('రీ', 'U'), ('యం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('కు', '|'), ('గొం', 'U'), ('చ', '|'), ('ము', '|'), ('న', '|'), ('ధి', '|'), ('కం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('కొం', 'U'), ('త', '|'), ('యు', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>వావిరి నీ భక్తులకు\న్‌
 గావరమున నెగ్గు సేయు గర్వాంధులకు\న్‌
@@ -3315,32 +3054,29 @@
 నీవల్లను భాగ్యమయ్యె నిజముగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('వి', '|'), ('రి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కున్', 'U'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నె', 'U'), ('గ్గు', '|'), ('సే', 'U'), ('యు', '|'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('ల', '|'), ('కున్', 'U'), ('దే', 'U'), ('వ', '|'), ('వ', '|'), ('ధిం', 'U'), ('చు', '|'), ('ట', '|'), ('విం', 'U'), ('టి', '|'), ('ని', '|'), ('నీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('ను', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', 'U'), ('య్యె', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>అయ్యా పంచేంద్రియములు
 నుయ్యాలల నూచినట్టు లూచఁగ నేను\న్‌
@@ -3348,32 +3084,29 @@
 గుయ్యాలింపుము మహాత్మ గుఱుతుగఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('య్యా', 'U'), ('పం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('ను', 'U'), ('య్యా', 'U'), ('ల', '|'), ('ల', '|'), ('నూ', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టు', '|'), ('లూ', 'U'), ('చ', '|'), ('గ', '|'), ('నే', 'U'), ('నున్', 'U'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('నుం', 'U'), ('టి', '|'), ('ని', '|'), ('గు', 'U'), ('య్యా', 'U'), ('లిం', 'U'), ('పు', '|'), ('ము', '|'), ('మ', '|'), ('హా', 'U'), ('త్మ', '|'), ('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>కంటికి ఱెప్ప విధంబున
 బంటుగదా యనుచు నన్నుఁ బాయక యెపుడు\న్‌
@@ -3381,32 +3114,29 @@
 కంటక మగు పాపములను గడచితిఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('బం', 'U'), ('టు', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('న', 'U'), ('న్ను', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యె', '|'), ('పు', '|'), ('డున్', 'U'), ('జం', 'U'), ('ట', '|'), ('యు', '|'), ('నీ', 'U'), ('వుం', 'U'), ('డు', '|'), ('ట', '|'), ('నే', 'U'), ('కం', 'U'), ('ట', '|'), ('క', '|'), ('మ', '|'), ('గు', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('డ', '|'), ('చి', '|'), ('తి', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>యమునకు నిఁక నే వెఱువను
 కమలాక్ష జగన్నివాస కామితఫలదా
@@ -3414,32 +3144,29 @@
 నమఁరఁగఁ దలఁచెదను వేగ ననిశము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('వె', '|'), ('ఱు', '|'), ('వ', '|'), ('ను', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్ష', '|'), ('జ', '|'), ('గ', 'U'), ('న్ని', '|'), ('వా', 'U'), ('స', '|'), ('కా', 'U'), ('మి', '|'), ('త', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('గ', '|'), ('ద', '|'), ('ల', '|'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('వే', 'U'), ('గ', '|'), ('న', '|'), ('ని', '|'), ('శ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>దండమయా విశ్వంభర
 దండమయా పుండరీక దళనేత్ర హరీ
@@ -3447,32 +3174,29 @@
 దండమయా నీకు నెపుడు దండము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డ', '|'), ('మ', '|'), ('యా', 'U'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('ర', '|'), ('దం', 'U'), ('డ', '|'), ('మ', '|'), ('యా', 'U'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('క', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('హ', '|'), ('రీ', 'U'), ('దం', 'U'), ('డ', '|'), ('మ', '|'), ('యా', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ని', '|'), ('ధి', '|'), ('దం', 'U'), ('డ', '|'), ('మ', '|'), ('యా', 'U'), ('నీ', 'U'), ('కు', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>నారాయణ లక్ష్మీపతి
 నారాయణ వాసుదేవ నందకుమారా
@@ -3480,32 +3204,29 @@
 నారాయణ నన్నుఁ బ్రోవు నగధర కృష్ణా.</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప', '|'), ('తి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('నం', 'U'), ('ద', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('న', '|'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>తిరుమణి దురితవిదూరము
 తిరుమణి సౌభాగ్యకరము త్రిజగములందు\న్‌
@@ -3513,32 +3234,29 @@
 పరమపవిత్రుండు భాగ్యవంతుడు కృష్ణా.</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('వి', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('క', '|'), ('ర', '|'), ('ము', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('దున్', 'U'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ప', '|'), ('వి', 'U'), ('త్రుం', 'U'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>శ్రీలక్ష్మీనారాయణ
 వాలాయము నిన్నుఁ దలఁతు వందితచరణా
@@ -3546,32 +3264,29 @@
 జాలఁగ నిను నమ్మినాను సరసుఁడ కృష్ణా.</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('వా', 'U'), ('లా', 'U'), ('య', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('ఏ', 'U'), ('లు', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('బం', 'U'), ('టు', '|'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>శ్రీధర మాధవ యచ్యుత
 భూధర పురుహూతవినుత పురుషోత్తమ నీ
@@ -3579,32 +3294,29 @@
 మోదముతో నమ్మినాఁడ ముద్దుల కృష్ణా.</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మా', 'U'), ('ధ', '|'), ('వ', '|'), ('య', 'U'), ('చ్యు', '|'), ('త', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('పు', '|'), ('రు', '|'), ('హూ', 'U'), ('త', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('పు', '|'), ('రు', '|'), ('షో', 'U'), ('త్త', '|'), ('మ', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>శిరమున రత్నకిరీటము
 కరయుగమున శంఖచక్ర ఘనభూషణముల్‌
@@ -3612,32 +3324,29 @@
 సిరినాయక యమరవినుత శ్రీహరి కృష్ణా.</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('క', '|'), ('ర', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('ఘ', '|'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ముల్', 'U'), ('ఉ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పు', '|'), ('బ', '|'), ('త', '|'), ('క', '|'), ('ము', '|'), ('సి', '|'), ('రి', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('య', '|'), ('మ', '|'), ('ర', '|'), ('వి', '|'), ('ను', '|'), ('త', 'U'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>అందెలు పాదములందును
 సుందరముగ నుంచినావు సొంపలరంగా
@@ -3645,32 +3354,29 @@
 నందుని వరపుత్ర నిన్ను నమ్మితిఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('దె', '|'), ('లు', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('నుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('సొం', 'U'), ('ప', '|'), ('ల', '|'), ('రం', 'U'), ('గా', 'U'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('వ', '|'), ('ర', '|'), ('పు', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>కందర్పకోటి సుందర
 మందరధర భానుతేజ మంజులదేహా
@@ -3678,32 +3384,29 @@
 వందిత మిము దలఁతు భక్తవత్సల కృష్ణా.</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('కో', 'U'), ('టి', '|'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('భా', 'U'), ('ను', '|'), ('తే', 'U'), ('జ', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('దే', 'U'), ('హా', 'U'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('వి', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('ని', '|'), ('గ', '|'), ('ణ', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('మి', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>దుర్మతిని మిగుల దుష్టపుఁ
 గర్మంబులఁ జేసినట్టి కష్టుండ నన్ను\న్‌
@@ -3711,32 +3414,29 @@
 ష్కర్ముఁడ నిన్ను నమ్మినాను సతతము కృష్ణా.</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('ర్మ', '|'), ('తి', '|'), ('ని', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('దు', 'U'), ('ష్ట', '|'), ('పు', '|'), ('గ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ష్టుం', 'U'), ('డ', '|'), ('న', '|'), ('న్నున్', 'U'), ('ని', '|'), ('ర్మ', '|'), ('లు', '|'), ('ని', '|'), ('జే', 'U'), ('య', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('ష్క', '|'), ('ర్ము', '|'), ('డ', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('త', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>భారద్వాజసగోత్రుఁడ
 గారవమున గంగమాంబ కరుణాసుతుఁడ\న్‌
@@ -3744,32 +3444,29 @@
 శ్రీరమయుత నన్నుఁగావు సృష్టినిఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('ర', 'U'), ('ద్వా', 'U'), ('జ', '|'), ('స', '|'), ('గో', 'U'), ('త్రు', '|'), ('డ', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('గం', 'U'), ('గ', '|'), ('మాం', 'U'), ('బ', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('సు', '|'), ('తు', '|'), ('డన్', 'U'), ('పే', 'U'), ('ర', '|'), ('నృ', '|'), ('సిం', 'U'), ('హా', 'U'), ('హ్వ', '|'), ('యు', '|'), ('డ', '|'), ('ను', 'U'), ('శ్రీ', 'U'), ('ర', '|'), ('మ', '|'), ('యు', '|'), ('త', '|'), ('న', 'U'), ('న్ను', '|'), ('గా', 'U'), ('వు', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>అనుదినము కృష్ణశతకము
 వినినఁ బఠించినను ముక్తి వేడుక గలుగు\న్‌
@@ -3777,17 +3474,17 @@
 తనయులు నభివృద్ధిఁ బొందు దద్దయుఁ గృష్ణా.</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>krishna</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
-        <is>
-          <t>krishna</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
         <is>
           <t>[('అ', '|'), ('ను', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ము', '|'), ('వి', '|'), ('ని', '|'), ('న', '|'), ('బ', '|'), ('ఠిం', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('గ', '|'), ('లు', '|'), ('గున్', 'U'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('ము', '|'), ('గో', 'U'), ('గ', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('లు', '|'), ('న', '|'), ('భి', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('బొం', 'U'), ('దు', '|'), ('ద', 'U'), ('ద్ద', '|'), ('యు', '|'), ('గృ', 'U'), ('ష్ణా', 'U')]</t>
         </is>
